--- a/data/trans_dic/P64D$bicicleta_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P64D$bicicleta_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.004712063431811527</v>
+        <v>0.004712063431811526</v>
       </c>
     </row>
     <row r="5">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03270848173597611</v>
+        <v>0.03239572677946239</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.01811099635912326</v>
+        <v>0.0199340305192011</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01351026958651561</v>
+        <v>0.0135102695865156</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.002672803960932176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.009007451540112276</v>
+        <v>0.009007451540112277</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00636786293347538</v>
+        <v>0.005868848196585021</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00463451236835821</v>
+        <v>0.004468208397783547</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0257162530012745</v>
+        <v>0.02550455728873256</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01025042355499853</v>
+        <v>0.009270152843395496</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01788485538964941</v>
+        <v>0.01739749779453384</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00777338160197813</v>
+        <v>0.00807167124743372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006279999006204731</v>
+        <v>0.005103799164417094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009534162120367244</v>
+        <v>0.01034645967062639</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05986816924205616</v>
+        <v>0.07719276063378157</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03114458169374501</v>
+        <v>0.03203658404823618</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03953614104407323</v>
+        <v>0.04318661975435629</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.03230168278347538</v>
+        <v>0.03230168278347539</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02320163392067403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02807537257207394</v>
+        <v>0.02807537257207393</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01721113603543682</v>
+        <v>0.01768615821105457</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01275854942990641</v>
+        <v>0.01280115264000064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01837925412518588</v>
+        <v>0.01847608160888316</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05624564701304812</v>
+        <v>0.05461601276201089</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0394394683819374</v>
+        <v>0.03987189921231009</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0428978587593574</v>
+        <v>0.04241078298210065</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01362897283458133</v>
+        <v>0.01296473296099605</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007115570315910978</v>
+        <v>0.007129485185654203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01130035394062965</v>
+        <v>0.01160502882632028</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02972965084137843</v>
+        <v>0.03035942705031936</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01674358295999043</v>
+        <v>0.01659293274163633</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02227899425208083</v>
+        <v>0.02247900702577365</v>
       </c>
     </row>
     <row r="19">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11961</v>
+        <v>11847</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>11631</v>
+        <v>12802</v>
       </c>
     </row>
     <row r="8">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3954</v>
+        <v>3644</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4923</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="11">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15966</v>
+        <v>15835</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4524</v>
+        <v>4091</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18997</v>
+        <v>18479</v>
       </c>
     </row>
     <row r="12">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3206</v>
+        <v>3329</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2086</v>
+        <v>1695</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7098</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>24689</v>
+        <v>31834</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10344</v>
+        <v>10640</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29435</v>
+        <v>32153</v>
       </c>
     </row>
     <row r="16">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8765</v>
+        <v>9007</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5634</v>
+        <v>5653</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17476</v>
+        <v>17568</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28644</v>
+        <v>27814</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17417</v>
+        <v>17608</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40791</v>
+        <v>40327</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>26007</v>
+        <v>24739</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10613</v>
+        <v>10634</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38419</v>
+        <v>39454</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>56730</v>
+        <v>57932</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>24974</v>
+        <v>24750</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>75743</v>
+        <v>76423</v>
       </c>
     </row>
     <row r="24">
